--- a/QuestionsWebApplication/Daily updates.xlsx
+++ b/QuestionsWebApplication/Daily updates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -112,6 +112,24 @@
   </si>
   <si>
     <t>Task: worked on the end user documentataion</t>
+  </si>
+  <si>
+    <t>8.5 hours</t>
+  </si>
+  <si>
+    <t>Task: worked on implementing the Questions builder in ASP.NET MVC</t>
+  </si>
+  <si>
+    <t>1.5 hours</t>
+  </si>
+  <si>
+    <t>Self learning: Finished up the lifecycle events section in the asp.net mvc course and watched a video on AJAX in asp.net</t>
+  </si>
+  <si>
+    <t>Task: Working on implementing the questions builder web app further</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -477,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,19 +737,42 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="3">
+        <v>44459</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="3">
+        <v>44459</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="3">
+        <v>44460</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">

--- a/QuestionsWebApplication/Daily updates.xlsx
+++ b/QuestionsWebApplication/Daily updates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -129,7 +129,13 @@
     <t>Task: Working on implementing the questions builder web app further</t>
   </si>
   <si>
-    <t>s</t>
+    <t>7.5 hours</t>
+  </si>
+  <si>
+    <t>Task: Working on implementing signalR and sorting the data</t>
+  </si>
+  <si>
+    <t>Self learning: Learned more about C# interfaces</t>
   </si>
 </sst>
 </file>
@@ -496,7 +502,7 @@
   <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,14 +776,26 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3">
+        <v>44461</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="3">
+        <v>44461</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
